--- a/model/compared_results/ozone_level_result/ozone_level_results.xlsx
+++ b/model/compared_results/ozone_level_result/ozone_level_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -492,31 +492,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9322</v>
+        <v>0.9235</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6438</v>
+        <v>0.6562</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9407</v>
+        <v>0.9314</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6594</v>
+        <v>0.6437</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7756</v>
+        <v>0.7773</v>
       </c>
       <c r="G2" t="n">
-        <v>0.8984</v>
+        <v>0.8983</v>
       </c>
       <c r="H2" t="n">
-        <v>0.3729</v>
+        <v>0.3213</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6177</v>
+        <v>0.6042999999999999</v>
       </c>
       <c r="J2" t="n">
-        <v>0.7923</v>
+        <v>0.7938</v>
       </c>
     </row>
     <row r="3">
@@ -526,31 +526,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9302</v>
+        <v>0.931</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4657</v>
+        <v>0.6171</v>
       </c>
       <c r="D3" t="n">
-        <v>0.944</v>
+        <v>0.9403</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6168</v>
+        <v>0.653</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6529</v>
+        <v>0.7597</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8308</v>
+        <v>0.8577</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2515</v>
+        <v>0.3036</v>
       </c>
       <c r="I3" t="n">
-        <v>0.588</v>
+        <v>0.6135</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7048</v>
+        <v>0.7786999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -560,31 +560,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8659</v>
+        <v>0.8746</v>
       </c>
       <c r="C4" t="n">
-        <v>0.739</v>
+        <v>0.7257</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8697</v>
+        <v>0.879</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5833</v>
+        <v>0.5904</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7996</v>
+        <v>0.7945</v>
       </c>
       <c r="G4" t="n">
-        <v>0.8827</v>
+        <v>0.8803</v>
       </c>
       <c r="H4" t="n">
-        <v>0.3076</v>
+        <v>0.3049</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5674</v>
+        <v>0.5707</v>
       </c>
       <c r="J4" t="n">
-        <v>0.8044</v>
+        <v>0.8024</v>
       </c>
     </row>
     <row r="5">
@@ -594,31 +594,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.862</v>
+        <v>0.8624000000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7543</v>
+        <v>0.7685999999999999</v>
       </c>
       <c r="D5" t="n">
         <v>0.8652</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5814</v>
+        <v>0.5833</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8048999999999999</v>
+        <v>0.8123</v>
       </c>
       <c r="G5" t="n">
-        <v>0.8997000000000001</v>
+        <v>0.8982</v>
       </c>
       <c r="H5" t="n">
-        <v>0.3324</v>
+        <v>0.3355</v>
       </c>
       <c r="I5" t="n">
-        <v>0.5669</v>
+        <v>0.5679999999999999</v>
       </c>
       <c r="J5" t="n">
-        <v>0.8098</v>
+        <v>0.8169</v>
       </c>
     </row>
     <row r="6">
@@ -628,31 +628,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8438</v>
+        <v>0.8628</v>
       </c>
       <c r="C6" t="n">
-        <v>0.521</v>
+        <v>0.4829</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8534</v>
+        <v>0.8742</v>
       </c>
       <c r="E6" t="n">
-        <v>0.541</v>
+        <v>0.5422</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6618000000000001</v>
+        <v>0.6286</v>
       </c>
       <c r="G6" t="n">
-        <v>0.767</v>
+        <v>0.8048999999999999</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1216</v>
+        <v>0.1557</v>
       </c>
       <c r="I6" t="n">
-        <v>0.5425</v>
+        <v>0.5401</v>
       </c>
       <c r="J6" t="n">
-        <v>0.6872</v>
+        <v>0.6785</v>
       </c>
     </row>
     <row r="7">
@@ -662,31 +662,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.819</v>
+        <v>0.8099</v>
       </c>
       <c r="C7" t="n">
-        <v>0.781</v>
+        <v>0.8371</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8201000000000001</v>
+        <v>0.8092</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5485</v>
+        <v>0.5476</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7994</v>
+        <v>0.8219</v>
       </c>
       <c r="G7" t="n">
-        <v>0.8894</v>
+        <v>0.8829</v>
       </c>
       <c r="H7" t="n">
-        <v>0.2767</v>
+        <v>0.294</v>
       </c>
       <c r="I7" t="n">
-        <v>0.5532</v>
+        <v>0.555</v>
       </c>
       <c r="J7" t="n">
-        <v>0.8005</v>
+        <v>0.8232</v>
       </c>
     </row>
     <row r="8">
@@ -789,6 +789,176 @@
       </c>
       <c r="J10" t="n">
         <v>0.648</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>CatBoostClassifier</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.9708</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.0819</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.9972</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.5606</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.2515</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.8803</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.2419</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.6951000000000001</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.5395</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>SMOTEBoostClassifier</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.9263</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.521</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.9383</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.6221</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.6897</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.8493000000000001</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.3017</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.5911</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.7296</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>OverBaggingClassifier</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.972</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.09710000000000001</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.998</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.5752</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.2705</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.8197</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.3014</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.7703</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.5476</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>OverBoostClassifier</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.9381</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9517</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.6357</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.6671</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.8284</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.3165</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.6051</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.7158</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>SMOTEBaggingClassifier</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.9708</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.1114</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9963</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.5809</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.2924</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.8344</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.7188</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.5538999999999999</v>
       </c>
     </row>
   </sheetData>
